--- a/AEMostofa/Southwest Project/SMO Gopalgonj/Khal/P1/Design & XL File/1 Hiraon Branch Khal/CS of Hiron branch khal.xlsx
+++ b/AEMostofa/Southwest Project/SMO Gopalgonj/Khal/P1/Design & XL File/1 Hiraon Branch Khal/CS of Hiron branch khal.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" tabRatio="845"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" tabRatio="845" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Long section Hiron branch khal" sheetId="17" r:id="rId1"/>
@@ -14,9 +14,10 @@
     <sheet name="Hiron branch khal (DATA)" sheetId="16" r:id="rId5"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="4">'Hiron branch khal (DATA)'!$A$1:$T$183</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Long section Hiron branch khal'!$A$1:$AB$48</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -1052,6 +1053,24 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="6" applyBorder="1"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="20" xfId="6" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="6" applyFont="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="16" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="17" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="18" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="19" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="20" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="14" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
@@ -1102,24 +1121,6 @@
     <xf numFmtId="0" fontId="31" fillId="0" borderId="15" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="16" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="17" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="18" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="19" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="20" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="8" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -1131,12 +1132,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="justify"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1162,6 +1157,12 @@
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="justify"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="justify"/>
@@ -1555,11 +1556,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="198532096"/>
-        <c:axId val="198534656"/>
+        <c:axId val="212518016"/>
+        <c:axId val="212520320"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="198532096"/>
+        <c:axId val="212518016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1643,7 +1644,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="198534656"/>
+        <c:crossAx val="212520320"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1652,7 +1653,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="198534656"/>
+        <c:axId val="212520320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1736,7 +1737,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="198532096"/>
+        <c:crossAx val="212518016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="2"/>
@@ -2080,11 +2081,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="201643904"/>
-        <c:axId val="201645440"/>
+        <c:axId val="255229952"/>
+        <c:axId val="255231488"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="201643904"/>
+        <c:axId val="255229952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -2130,12 +2131,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="201645440"/>
+        <c:crossAx val="255231488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="201645440"/>
+        <c:axId val="255231488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2180,7 +2181,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="201643904"/>
+        <c:crossAx val="255229952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2494,11 +2495,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="200110080"/>
-        <c:axId val="200111616"/>
+        <c:axId val="255256832"/>
+        <c:axId val="256376832"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="200110080"/>
+        <c:axId val="255256832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -2544,12 +2545,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="200111616"/>
+        <c:crossAx val="256376832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="200111616"/>
+        <c:axId val="256376832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2594,7 +2595,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="200110080"/>
+        <c:crossAx val="255256832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2926,11 +2927,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="201656576"/>
-        <c:axId val="201662464"/>
+        <c:axId val="256422656"/>
+        <c:axId val="256424192"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="201656576"/>
+        <c:axId val="256422656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -2976,12 +2977,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="201662464"/>
+        <c:crossAx val="256424192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="201662464"/>
+        <c:axId val="256424192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3026,7 +3027,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="201656576"/>
+        <c:crossAx val="256422656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3196,11 +3197,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="201682944"/>
-        <c:axId val="201684480"/>
+        <c:axId val="256715008"/>
+        <c:axId val="256720896"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="201682944"/>
+        <c:axId val="256715008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -3246,12 +3247,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="201684480"/>
+        <c:crossAx val="256720896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="201684480"/>
+        <c:axId val="256720896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3296,7 +3297,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="201682944"/>
+        <c:crossAx val="256715008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3466,11 +3467,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="201788032"/>
-        <c:axId val="201789824"/>
+        <c:axId val="256746624"/>
+        <c:axId val="256748160"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="201788032"/>
+        <c:axId val="256746624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -3516,12 +3517,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="201789824"/>
+        <c:crossAx val="256748160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="201789824"/>
+        <c:axId val="256748160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3566,7 +3567,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="201788032"/>
+        <c:crossAx val="256746624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3760,11 +3761,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="201823360"/>
-        <c:axId val="201824896"/>
+        <c:axId val="256511360"/>
+        <c:axId val="256521344"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="201823360"/>
+        <c:axId val="256511360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -3810,12 +3811,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="201824896"/>
+        <c:crossAx val="256521344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="201824896"/>
+        <c:axId val="256521344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3860,7 +3861,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="201823360"/>
+        <c:crossAx val="256511360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4228,11 +4229,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="201866240"/>
-        <c:axId val="201868032"/>
+        <c:axId val="256554496"/>
+        <c:axId val="256556032"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="201866240"/>
+        <c:axId val="256554496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -4278,12 +4279,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="201868032"/>
+        <c:crossAx val="256556032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="201868032"/>
+        <c:axId val="256556032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4328,7 +4329,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="201866240"/>
+        <c:crossAx val="256554496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4690,11 +4691,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="201893376"/>
-        <c:axId val="201894912"/>
+        <c:axId val="256585728"/>
+        <c:axId val="256587264"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="201893376"/>
+        <c:axId val="256585728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -4740,12 +4741,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="201894912"/>
+        <c:crossAx val="256587264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="201894912"/>
+        <c:axId val="256587264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4790,7 +4791,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="201893376"/>
+        <c:crossAx val="256585728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5030,11 +5031,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="199886720"/>
-        <c:axId val="199888256"/>
+        <c:axId val="256770048"/>
+        <c:axId val="256771584"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="199886720"/>
+        <c:axId val="256770048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -5080,12 +5081,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="199888256"/>
+        <c:crossAx val="256771584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="199888256"/>
+        <c:axId val="256771584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5130,7 +5131,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="199886720"/>
+        <c:crossAx val="256770048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5376,11 +5377,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="199917952"/>
-        <c:axId val="199919488"/>
+        <c:axId val="212207872"/>
+        <c:axId val="256794624"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="199917952"/>
+        <c:axId val="212207872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -5426,12 +5427,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="199919488"/>
+        <c:crossAx val="256794624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="199919488"/>
+        <c:axId val="256794624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5476,7 +5477,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="199917952"/>
+        <c:crossAx val="212207872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5728,11 +5729,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="199013120"/>
-        <c:axId val="199014656"/>
+        <c:axId val="212355712"/>
+        <c:axId val="212361600"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="199013120"/>
+        <c:axId val="212355712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -5778,12 +5779,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="199014656"/>
+        <c:crossAx val="212361600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="199014656"/>
+        <c:axId val="212361600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5828,7 +5829,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="199013120"/>
+        <c:crossAx val="212355712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6062,11 +6063,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="202640768"/>
-        <c:axId val="202646656"/>
+        <c:axId val="256828928"/>
+        <c:axId val="256830464"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="202640768"/>
+        <c:axId val="256828928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -6112,12 +6113,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="202646656"/>
+        <c:crossAx val="256830464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="202646656"/>
+        <c:axId val="256830464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6162,7 +6163,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="202640768"/>
+        <c:crossAx val="256828928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6414,11 +6415,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="202675328"/>
-        <c:axId val="202676864"/>
+        <c:axId val="257309696"/>
+        <c:axId val="257315584"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="202675328"/>
+        <c:axId val="257309696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -6464,12 +6465,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="202676864"/>
+        <c:crossAx val="257315584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="202676864"/>
+        <c:axId val="257315584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6514,7 +6515,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="202675328"/>
+        <c:crossAx val="257309696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6748,11 +6749,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="202780032"/>
-        <c:axId val="202781824"/>
+        <c:axId val="257340928"/>
+        <c:axId val="257342464"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="202780032"/>
+        <c:axId val="257340928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -6798,12 +6799,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="202781824"/>
+        <c:crossAx val="257342464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="202781824"/>
+        <c:axId val="257342464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6848,7 +6849,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="202780032"/>
+        <c:crossAx val="257340928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7094,11 +7095,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="202807168"/>
-        <c:axId val="202808704"/>
+        <c:axId val="257384448"/>
+        <c:axId val="257385984"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="202807168"/>
+        <c:axId val="257384448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -7144,12 +7145,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="202808704"/>
+        <c:crossAx val="257385984"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="202808704"/>
+        <c:axId val="257385984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7194,7 +7195,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="202807168"/>
+        <c:crossAx val="257384448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7446,11 +7447,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="202854784"/>
-        <c:axId val="202856320"/>
+        <c:axId val="257415424"/>
+        <c:axId val="257421312"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="202854784"/>
+        <c:axId val="257415424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -7496,12 +7497,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="202856320"/>
+        <c:crossAx val="257421312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="202856320"/>
+        <c:axId val="257421312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7546,7 +7547,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="202854784"/>
+        <c:crossAx val="257415424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7798,11 +7799,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="202898816"/>
-        <c:axId val="202904704"/>
+        <c:axId val="257574400"/>
+        <c:axId val="257575936"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="202898816"/>
+        <c:axId val="257574400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -7848,12 +7849,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="202904704"/>
+        <c:crossAx val="257575936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="202904704"/>
+        <c:axId val="257575936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7898,7 +7899,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="202898816"/>
+        <c:crossAx val="257574400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -8156,11 +8157,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="198773760"/>
-        <c:axId val="198796032"/>
+        <c:axId val="212386944"/>
+        <c:axId val="212388480"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="198773760"/>
+        <c:axId val="212386944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -8206,12 +8207,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="198796032"/>
+        <c:crossAx val="212388480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="198796032"/>
+        <c:axId val="212388480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8256,7 +8257,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="198773760"/>
+        <c:crossAx val="212386944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -8508,11 +8509,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="198829568"/>
-        <c:axId val="198831104"/>
+        <c:axId val="212548992"/>
+        <c:axId val="212563072"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="198829568"/>
+        <c:axId val="212548992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -8558,12 +8559,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="198831104"/>
+        <c:crossAx val="212563072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="198831104"/>
+        <c:axId val="212563072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8608,7 +8609,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="198829568"/>
+        <c:crossAx val="212548992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -8928,11 +8929,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="199036288"/>
-        <c:axId val="199038080"/>
+        <c:axId val="240627712"/>
+        <c:axId val="240629248"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="199036288"/>
+        <c:axId val="240627712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -8978,12 +8979,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="199038080"/>
+        <c:crossAx val="240629248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="199038080"/>
+        <c:axId val="240629248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9028,7 +9029,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="199036288"/>
+        <c:crossAx val="240627712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -9354,11 +9355,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="199067904"/>
-        <c:axId val="199077888"/>
+        <c:axId val="240531712"/>
+        <c:axId val="240541696"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="199067904"/>
+        <c:axId val="240531712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -9404,12 +9405,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="199077888"/>
+        <c:crossAx val="240541696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="199077888"/>
+        <c:axId val="240541696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9454,7 +9455,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="199067904"/>
+        <c:crossAx val="240531712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -9744,11 +9745,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="200024448"/>
-        <c:axId val="200025984"/>
+        <c:axId val="240575232"/>
+        <c:axId val="240576768"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="200024448"/>
+        <c:axId val="240575232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -9794,12 +9795,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="200025984"/>
+        <c:crossAx val="240576768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="200025984"/>
+        <c:axId val="240576768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9844,7 +9845,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="200024448"/>
+        <c:crossAx val="240575232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -10176,11 +10177,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="200047232"/>
-        <c:axId val="200057216"/>
+        <c:axId val="240733184"/>
+        <c:axId val="240743168"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="200047232"/>
+        <c:axId val="240733184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -10226,12 +10227,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="200057216"/>
+        <c:crossAx val="240743168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="200057216"/>
+        <c:axId val="240743168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10276,7 +10277,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="200047232"/>
+        <c:crossAx val="240733184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -10560,11 +10561,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="201606272"/>
-        <c:axId val="201607808"/>
+        <c:axId val="240776704"/>
+        <c:axId val="240778240"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="201606272"/>
+        <c:axId val="240776704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -10610,12 +10611,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="201607808"/>
+        <c:crossAx val="240778240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="201607808"/>
+        <c:axId val="240778240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10660,7 +10661,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="201606272"/>
+        <c:crossAx val="240776704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -10734,7 +10735,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10777,7 +10778,7 @@
         <xdr:cNvPr id="2" name="Chart 152">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5F5B9975-A85D-46E4-B500-C1CB1A0287C0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5F5B9975-A85D-46E4-B500-C1CB1A0287C0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10815,7 +10816,7 @@
         <xdr:cNvPr id="3" name="Chart 152">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{24E05792-92F2-4222-ADCF-CF542C0EC697}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{24E05792-92F2-4222-ADCF-CF542C0EC697}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10853,7 +10854,7 @@
         <xdr:cNvPr id="4" name="Chart 152">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{21406F6B-21F4-419D-9B29-E3B1529C0482}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{21406F6B-21F4-419D-9B29-E3B1529C0482}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10896,7 +10897,7 @@
         <xdr:cNvPr id="2" name="Chart 152">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10934,7 +10935,7 @@
         <xdr:cNvPr id="36" name="Chart 152">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{53EBD8AF-9F1A-4091-BB8C-CCDEE2A6A6ED}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{53EBD8AF-9F1A-4091-BB8C-CCDEE2A6A6ED}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10972,7 +10973,7 @@
         <xdr:cNvPr id="37" name="Chart 152">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{12B0A20F-C3C6-4F50-A940-9119C9C3D095}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{12B0A20F-C3C6-4F50-A940-9119C9C3D095}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11010,7 +11011,7 @@
         <xdr:cNvPr id="38" name="Chart 152">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{860ED641-517A-4279-8B9F-F1C672642510}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{860ED641-517A-4279-8B9F-F1C672642510}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11048,7 +11049,7 @@
         <xdr:cNvPr id="39" name="Chart 152">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FDCB6569-0379-4F60-99CA-0643F1353EBA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FDCB6569-0379-4F60-99CA-0643F1353EBA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11086,7 +11087,7 @@
         <xdr:cNvPr id="40" name="Chart 152">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{144F283E-7B60-4404-B26B-9E0981B558A4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{144F283E-7B60-4404-B26B-9E0981B558A4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11124,7 +11125,7 @@
         <xdr:cNvPr id="41" name="Chart 152">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{17F16DEB-454F-4AFC-A2C4-5715A988E77B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{17F16DEB-454F-4AFC-A2C4-5715A988E77B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11162,7 +11163,7 @@
         <xdr:cNvPr id="42" name="Chart 152">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8CA5868A-AE9D-48F6-877C-6668D15DE49D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8CA5868A-AE9D-48F6-877C-6668D15DE49D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11200,7 +11201,7 @@
         <xdr:cNvPr id="51" name="Chart 152">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4C1D77C1-CFFA-4BF9-A191-836028D36BD3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4C1D77C1-CFFA-4BF9-A191-836028D36BD3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11238,7 +11239,7 @@
         <xdr:cNvPr id="52" name="Chart 152">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E9B11E40-F5BD-4EC4-AFC5-8785129AB0F0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E9B11E40-F5BD-4EC4-AFC5-8785129AB0F0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11276,7 +11277,7 @@
         <xdr:cNvPr id="53" name="Chart 152">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FEEB865F-A69D-41FE-8A3D-5F3A5A5D9D3D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FEEB865F-A69D-41FE-8A3D-5F3A5A5D9D3D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11314,7 +11315,7 @@
         <xdr:cNvPr id="21" name="Chart 152">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EB53F7A3-4524-45F4-B0BA-68C8E1838746}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EB53F7A3-4524-45F4-B0BA-68C8E1838746}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11352,7 +11353,7 @@
         <xdr:cNvPr id="22" name="Chart 152">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C206592A-4128-48DE-8946-3B281553DA66}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C206592A-4128-48DE-8946-3B281553DA66}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11395,7 +11396,7 @@
         <xdr:cNvPr id="5" name="Text Box 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0700-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11528,7 +11529,7 @@
         <xdr:cNvPr id="6" name="Text Box 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0700-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11680,7 +11681,7 @@
         <xdr:cNvPr id="7" name="Text Box 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000007000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0700-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11836,7 +11837,7 @@
         <xdr:cNvPr id="2" name="Chart 152">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11874,7 +11875,7 @@
         <xdr:cNvPr id="3" name="Chart 152">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{53EBD8AF-9F1A-4091-BB8C-CCDEE2A6A6ED}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{53EBD8AF-9F1A-4091-BB8C-CCDEE2A6A6ED}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11912,7 +11913,7 @@
         <xdr:cNvPr id="4" name="Chart 152">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{12B0A20F-C3C6-4F50-A940-9119C9C3D095}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{12B0A20F-C3C6-4F50-A940-9119C9C3D095}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11950,7 +11951,7 @@
         <xdr:cNvPr id="5" name="Chart 152">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{860ED641-517A-4279-8B9F-F1C672642510}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{860ED641-517A-4279-8B9F-F1C672642510}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11988,7 +11989,7 @@
         <xdr:cNvPr id="6" name="Chart 152">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FDCB6569-0379-4F60-99CA-0643F1353EBA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FDCB6569-0379-4F60-99CA-0643F1353EBA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12026,7 +12027,7 @@
         <xdr:cNvPr id="7" name="Chart 152">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{144F283E-7B60-4404-B26B-9E0981B558A4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{144F283E-7B60-4404-B26B-9E0981B558A4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12064,7 +12065,7 @@
         <xdr:cNvPr id="8" name="Chart 152">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{17F16DEB-454F-4AFC-A2C4-5715A988E77B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{17F16DEB-454F-4AFC-A2C4-5715A988E77B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12102,7 +12103,7 @@
         <xdr:cNvPr id="9" name="Chart 152">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8CA5868A-AE9D-48F6-877C-6668D15DE49D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8CA5868A-AE9D-48F6-877C-6668D15DE49D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12417,7 +12418,7 @@
   </sheetPr>
   <dimension ref="A1:AM56"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A19" zoomScale="95" zoomScaleNormal="100" zoomScaleSheetLayoutView="95" workbookViewId="0">
+    <sheetView view="pageBreakPreview" topLeftCell="A19" zoomScale="95" zoomScaleNormal="100" zoomScaleSheetLayoutView="95" workbookViewId="0">
       <selection activeCell="R36" sqref="R36:AB39"/>
     </sheetView>
   </sheetViews>
@@ -12753,14 +12754,14 @@
       <c r="A1" s="93" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="130" t="s">
+      <c r="B1" s="136" t="s">
         <v>44</v>
       </c>
-      <c r="C1" s="131"/>
-      <c r="D1" s="131"/>
-      <c r="E1" s="131"/>
-      <c r="F1" s="131"/>
-      <c r="G1" s="131"/>
+      <c r="C1" s="137"/>
+      <c r="D1" s="137"/>
+      <c r="E1" s="137"/>
+      <c r="F1" s="137"/>
+      <c r="G1" s="137"/>
       <c r="H1" s="94"/>
       <c r="I1" s="94"/>
       <c r="J1" s="95"/>
@@ -13030,21 +13031,21 @@
     </row>
     <row r="7" spans="1:39" ht="15" x14ac:dyDescent="0.2">
       <c r="A7" s="110"/>
-      <c r="F7" s="132" t="s">
+      <c r="F7" s="138" t="s">
         <v>49</v>
       </c>
-      <c r="G7" s="132"/>
-      <c r="H7" s="132"/>
-      <c r="I7" s="132"/>
-      <c r="J7" s="132"/>
-      <c r="K7" s="132"/>
-      <c r="L7" s="132"/>
-      <c r="M7" s="132"/>
-      <c r="N7" s="132"/>
-      <c r="O7" s="132"/>
-      <c r="P7" s="132"/>
-      <c r="Q7" s="132"/>
-      <c r="R7" s="132"/>
+      <c r="G7" s="138"/>
+      <c r="H7" s="138"/>
+      <c r="I7" s="138"/>
+      <c r="J7" s="138"/>
+      <c r="K7" s="138"/>
+      <c r="L7" s="138"/>
+      <c r="M7" s="138"/>
+      <c r="N7" s="138"/>
+      <c r="O7" s="138"/>
+      <c r="P7" s="138"/>
+      <c r="Q7" s="138"/>
+      <c r="R7" s="138"/>
       <c r="AB7" s="113"/>
     </row>
     <row r="8" spans="1:39" x14ac:dyDescent="0.2">
@@ -13158,77 +13159,77 @@
     </row>
     <row r="35" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A35" s="110"/>
-      <c r="R35" s="133" t="s">
+      <c r="R35" s="139" t="s">
         <v>50</v>
       </c>
-      <c r="S35" s="134"/>
-      <c r="T35" s="134"/>
-      <c r="U35" s="134"/>
-      <c r="V35" s="134"/>
-      <c r="W35" s="134"/>
-      <c r="X35" s="134"/>
-      <c r="Y35" s="134"/>
-      <c r="Z35" s="134"/>
-      <c r="AA35" s="134"/>
-      <c r="AB35" s="135"/>
+      <c r="S35" s="140"/>
+      <c r="T35" s="140"/>
+      <c r="U35" s="140"/>
+      <c r="V35" s="140"/>
+      <c r="W35" s="140"/>
+      <c r="X35" s="140"/>
+      <c r="Y35" s="140"/>
+      <c r="Z35" s="140"/>
+      <c r="AA35" s="140"/>
+      <c r="AB35" s="141"/>
     </row>
     <row r="36" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="110"/>
-      <c r="R36" s="136" t="s">
+      <c r="R36" s="142" t="s">
         <v>59</v>
       </c>
-      <c r="S36" s="137"/>
-      <c r="T36" s="137"/>
-      <c r="U36" s="137"/>
-      <c r="V36" s="137"/>
-      <c r="W36" s="137"/>
-      <c r="X36" s="137"/>
-      <c r="Y36" s="137"/>
-      <c r="Z36" s="137"/>
-      <c r="AA36" s="137"/>
-      <c r="AB36" s="138"/>
+      <c r="S36" s="143"/>
+      <c r="T36" s="143"/>
+      <c r="U36" s="143"/>
+      <c r="V36" s="143"/>
+      <c r="W36" s="143"/>
+      <c r="X36" s="143"/>
+      <c r="Y36" s="143"/>
+      <c r="Z36" s="143"/>
+      <c r="AA36" s="143"/>
+      <c r="AB36" s="144"/>
     </row>
     <row r="37" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A37" s="110"/>
-      <c r="R37" s="139"/>
-      <c r="S37" s="140"/>
-      <c r="T37" s="140"/>
-      <c r="U37" s="140"/>
-      <c r="V37" s="140"/>
-      <c r="W37" s="140"/>
-      <c r="X37" s="140"/>
-      <c r="Y37" s="140"/>
-      <c r="Z37" s="140"/>
-      <c r="AA37" s="140"/>
-      <c r="AB37" s="141"/>
+      <c r="R37" s="145"/>
+      <c r="S37" s="146"/>
+      <c r="T37" s="146"/>
+      <c r="U37" s="146"/>
+      <c r="V37" s="146"/>
+      <c r="W37" s="146"/>
+      <c r="X37" s="146"/>
+      <c r="Y37" s="146"/>
+      <c r="Z37" s="146"/>
+      <c r="AA37" s="146"/>
+      <c r="AB37" s="147"/>
     </row>
     <row r="38" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A38" s="110"/>
-      <c r="R38" s="139"/>
-      <c r="S38" s="140"/>
-      <c r="T38" s="140"/>
-      <c r="U38" s="140"/>
-      <c r="V38" s="140"/>
-      <c r="W38" s="140"/>
-      <c r="X38" s="140"/>
-      <c r="Y38" s="140"/>
-      <c r="Z38" s="140"/>
-      <c r="AA38" s="140"/>
-      <c r="AB38" s="141"/>
+      <c r="R38" s="145"/>
+      <c r="S38" s="146"/>
+      <c r="T38" s="146"/>
+      <c r="U38" s="146"/>
+      <c r="V38" s="146"/>
+      <c r="W38" s="146"/>
+      <c r="X38" s="146"/>
+      <c r="Y38" s="146"/>
+      <c r="Z38" s="146"/>
+      <c r="AA38" s="146"/>
+      <c r="AB38" s="147"/>
     </row>
     <row r="39" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A39" s="110"/>
-      <c r="R39" s="142"/>
-      <c r="S39" s="143"/>
-      <c r="T39" s="143"/>
-      <c r="U39" s="143"/>
-      <c r="V39" s="143"/>
-      <c r="W39" s="143"/>
-      <c r="X39" s="143"/>
-      <c r="Y39" s="143"/>
-      <c r="Z39" s="143"/>
-      <c r="AA39" s="143"/>
-      <c r="AB39" s="144"/>
+      <c r="R39" s="148"/>
+      <c r="S39" s="149"/>
+      <c r="T39" s="149"/>
+      <c r="U39" s="149"/>
+      <c r="V39" s="149"/>
+      <c r="W39" s="149"/>
+      <c r="X39" s="149"/>
+      <c r="Y39" s="149"/>
+      <c r="Z39" s="149"/>
+      <c r="AA39" s="149"/>
+      <c r="AB39" s="150"/>
     </row>
     <row r="40" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A40" s="110"/>
@@ -13288,84 +13289,84 @@
     </row>
     <row r="44" spans="1:29" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="110"/>
-      <c r="R44" s="145" t="s">
+      <c r="R44" s="151" t="s">
         <v>51</v>
       </c>
-      <c r="S44" s="146"/>
-      <c r="T44" s="146"/>
-      <c r="U44" s="147"/>
-      <c r="V44" s="145" t="s">
+      <c r="S44" s="152"/>
+      <c r="T44" s="152"/>
+      <c r="U44" s="153"/>
+      <c r="V44" s="151" t="s">
         <v>52</v>
       </c>
-      <c r="W44" s="146"/>
-      <c r="X44" s="146"/>
-      <c r="Y44" s="147"/>
-      <c r="Z44" s="145" t="s">
+      <c r="W44" s="152"/>
+      <c r="X44" s="152"/>
+      <c r="Y44" s="153"/>
+      <c r="Z44" s="151" t="s">
         <v>61</v>
       </c>
-      <c r="AA44" s="146"/>
-      <c r="AB44" s="147"/>
+      <c r="AA44" s="152"/>
+      <c r="AB44" s="153"/>
     </row>
     <row r="45" spans="1:29" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="110"/>
-      <c r="R45" s="148" t="s">
+      <c r="R45" s="130" t="s">
         <v>53</v>
       </c>
-      <c r="S45" s="149"/>
-      <c r="T45" s="149"/>
-      <c r="U45" s="150"/>
-      <c r="V45" s="148" t="s">
+      <c r="S45" s="131"/>
+      <c r="T45" s="131"/>
+      <c r="U45" s="132"/>
+      <c r="V45" s="130" t="s">
         <v>54</v>
       </c>
-      <c r="W45" s="149"/>
-      <c r="X45" s="149"/>
-      <c r="Y45" s="150"/>
-      <c r="Z45" s="148" t="s">
+      <c r="W45" s="131"/>
+      <c r="X45" s="131"/>
+      <c r="Y45" s="132"/>
+      <c r="Z45" s="130" t="s">
         <v>55</v>
       </c>
-      <c r="AA45" s="149"/>
-      <c r="AB45" s="150"/>
+      <c r="AA45" s="131"/>
+      <c r="AB45" s="132"/>
     </row>
     <row r="46" spans="1:29" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="110"/>
-      <c r="R46" s="148" t="s">
+      <c r="R46" s="130" t="s">
         <v>56</v>
       </c>
-      <c r="S46" s="149"/>
-      <c r="T46" s="149"/>
-      <c r="U46" s="150"/>
-      <c r="V46" s="148" t="s">
+      <c r="S46" s="131"/>
+      <c r="T46" s="131"/>
+      <c r="U46" s="132"/>
+      <c r="V46" s="130" t="s">
         <v>56</v>
       </c>
-      <c r="W46" s="149"/>
-      <c r="X46" s="149"/>
-      <c r="Y46" s="150"/>
-      <c r="Z46" s="148" t="s">
+      <c r="W46" s="131"/>
+      <c r="X46" s="131"/>
+      <c r="Y46" s="132"/>
+      <c r="Z46" s="130" t="s">
         <v>56</v>
       </c>
-      <c r="AA46" s="149"/>
-      <c r="AB46" s="150"/>
+      <c r="AA46" s="131"/>
+      <c r="AB46" s="132"/>
       <c r="AC46" s="124"/>
     </row>
     <row r="47" spans="1:29" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="110"/>
-      <c r="R47" s="148" t="s">
+      <c r="R47" s="130" t="s">
         <v>57</v>
       </c>
-      <c r="S47" s="149"/>
-      <c r="T47" s="149"/>
-      <c r="U47" s="150"/>
-      <c r="V47" s="148" t="s">
+      <c r="S47" s="131"/>
+      <c r="T47" s="131"/>
+      <c r="U47" s="132"/>
+      <c r="V47" s="130" t="s">
         <v>57</v>
       </c>
-      <c r="W47" s="149"/>
-      <c r="X47" s="149"/>
-      <c r="Y47" s="150"/>
-      <c r="Z47" s="148" t="s">
+      <c r="W47" s="131"/>
+      <c r="X47" s="131"/>
+      <c r="Y47" s="132"/>
+      <c r="Z47" s="130" t="s">
         <v>57</v>
       </c>
-      <c r="AA47" s="149"/>
-      <c r="AB47" s="150"/>
+      <c r="AA47" s="131"/>
+      <c r="AB47" s="132"/>
       <c r="AC47" s="124"/>
     </row>
     <row r="48" spans="1:29" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -13386,23 +13387,23 @@
       <c r="O48" s="127"/>
       <c r="P48" s="127"/>
       <c r="Q48" s="127"/>
-      <c r="R48" s="151" t="s">
+      <c r="R48" s="133" t="s">
         <v>58</v>
       </c>
-      <c r="S48" s="152"/>
-      <c r="T48" s="152"/>
-      <c r="U48" s="153"/>
-      <c r="V48" s="151" t="s">
+      <c r="S48" s="134"/>
+      <c r="T48" s="134"/>
+      <c r="U48" s="135"/>
+      <c r="V48" s="133" t="s">
         <v>58</v>
       </c>
-      <c r="W48" s="152"/>
-      <c r="X48" s="152"/>
-      <c r="Y48" s="153"/>
-      <c r="Z48" s="151" t="s">
+      <c r="W48" s="134"/>
+      <c r="X48" s="134"/>
+      <c r="Y48" s="135"/>
+      <c r="Z48" s="133" t="s">
         <v>58</v>
       </c>
-      <c r="AA48" s="152"/>
-      <c r="AB48" s="153"/>
+      <c r="AA48" s="134"/>
+      <c r="AB48" s="135"/>
       <c r="AC48" s="128"/>
     </row>
     <row r="54" spans="18:28" x14ac:dyDescent="0.2">
@@ -13446,18 +13447,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="R47:U47"/>
-    <mergeCell ref="V47:Y47"/>
-    <mergeCell ref="Z47:AB47"/>
-    <mergeCell ref="R48:U48"/>
-    <mergeCell ref="V48:Y48"/>
-    <mergeCell ref="Z48:AB48"/>
-    <mergeCell ref="R45:U45"/>
-    <mergeCell ref="V45:Y45"/>
-    <mergeCell ref="Z45:AB45"/>
-    <mergeCell ref="R46:U46"/>
-    <mergeCell ref="V46:Y46"/>
-    <mergeCell ref="Z46:AB46"/>
     <mergeCell ref="B1:G1"/>
     <mergeCell ref="F7:R7"/>
     <mergeCell ref="R35:AB35"/>
@@ -13465,6 +13454,18 @@
     <mergeCell ref="R44:U44"/>
     <mergeCell ref="V44:Y44"/>
     <mergeCell ref="Z44:AB44"/>
+    <mergeCell ref="R45:U45"/>
+    <mergeCell ref="V45:Y45"/>
+    <mergeCell ref="Z45:AB45"/>
+    <mergeCell ref="R46:U46"/>
+    <mergeCell ref="V46:Y46"/>
+    <mergeCell ref="Z46:AB46"/>
+    <mergeCell ref="R47:U47"/>
+    <mergeCell ref="V47:Y47"/>
+    <mergeCell ref="Z47:AB47"/>
+    <mergeCell ref="R48:U48"/>
+    <mergeCell ref="V48:Y48"/>
+    <mergeCell ref="Z48:AB48"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.25" bottom="0.25" header="0.5" footer="0.5"/>
@@ -16494,21 +16495,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="159" t="s">
+      <c r="A1" s="168" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="159"/>
-      <c r="C1" s="159"/>
-      <c r="D1" s="159"/>
-      <c r="E1" s="159"/>
-      <c r="F1" s="159"/>
-      <c r="G1" s="159"/>
-      <c r="H1" s="159"/>
-      <c r="I1" s="159"/>
-      <c r="J1" s="159"/>
-      <c r="K1" s="159"/>
-      <c r="L1" s="159"/>
-      <c r="M1" s="159"/>
+      <c r="B1" s="168"/>
+      <c r="C1" s="168"/>
+      <c r="D1" s="168"/>
+      <c r="E1" s="168"/>
+      <c r="F1" s="168"/>
+      <c r="G1" s="168"/>
+      <c r="H1" s="168"/>
+      <c r="I1" s="168"/>
+      <c r="J1" s="168"/>
+      <c r="K1" s="168"/>
+      <c r="L1" s="168"/>
+      <c r="M1" s="168"/>
       <c r="N1" s="12"/>
       <c r="O1" s="12"/>
       <c r="P1" s="12"/>
@@ -17209,11 +17210,11 @@
       <c r="K21" s="19"/>
       <c r="L21" s="16"/>
       <c r="M21" s="19"/>
-      <c r="O21" s="161" t="s">
+      <c r="O21" s="159" t="s">
         <v>36</v>
       </c>
-      <c r="P21" s="162"/>
-      <c r="Q21" s="163"/>
+      <c r="P21" s="160"/>
+      <c r="Q21" s="161"/>
     </row>
     <row r="22" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B22" s="17"/>
@@ -17273,11 +17274,11 @@
       <c r="L24" s="16"/>
       <c r="M24" s="19"/>
       <c r="N24" s="14"/>
-      <c r="O24" s="164" t="s">
+      <c r="O24" s="162" t="s">
         <v>41</v>
       </c>
-      <c r="P24" s="165"/>
-      <c r="Q24" s="166"/>
+      <c r="P24" s="163"/>
+      <c r="Q24" s="164"/>
     </row>
     <row r="25" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B25" s="17"/>
@@ -17456,10 +17457,10 @@
       <c r="E33" s="13"/>
       <c r="F33" s="16"/>
       <c r="G33" s="19"/>
-      <c r="H33" s="160" t="s">
+      <c r="H33" s="167" t="s">
         <v>10</v>
       </c>
-      <c r="I33" s="160"/>
+      <c r="I33" s="167"/>
       <c r="J33" s="19">
         <f>G27</f>
         <v>65.332499999999996</v>
@@ -18362,10 +18363,10 @@
       <c r="E64" s="13"/>
       <c r="F64" s="16"/>
       <c r="G64" s="19"/>
-      <c r="H64" s="160" t="s">
+      <c r="H64" s="167" t="s">
         <v>10</v>
       </c>
-      <c r="I64" s="160"/>
+      <c r="I64" s="167"/>
       <c r="J64" s="19">
         <f>G58</f>
         <v>21.384</v>
@@ -19112,10 +19113,10 @@
       <c r="E90" s="13"/>
       <c r="F90" s="16"/>
       <c r="G90" s="19"/>
-      <c r="H90" s="160" t="s">
+      <c r="H90" s="167" t="s">
         <v>10</v>
       </c>
-      <c r="I90" s="160"/>
+      <c r="I90" s="167"/>
       <c r="J90" s="19">
         <f>G89</f>
         <v>25.436000000000007</v>
@@ -19974,10 +19975,10 @@
       <c r="E117" s="13"/>
       <c r="F117" s="16"/>
       <c r="G117" s="19"/>
-      <c r="H117" s="160" t="s">
+      <c r="H117" s="167" t="s">
         <v>10</v>
       </c>
-      <c r="I117" s="160"/>
+      <c r="I117" s="167"/>
       <c r="J117" s="19">
         <f>G116</f>
         <v>25.780499999999996</v>
@@ -20745,10 +20746,10 @@
       <c r="E144" s="13"/>
       <c r="F144" s="16"/>
       <c r="G144" s="19"/>
-      <c r="H144" s="160" t="s">
+      <c r="H144" s="167" t="s">
         <v>10</v>
       </c>
-      <c r="I144" s="160"/>
+      <c r="I144" s="167"/>
       <c r="J144" s="19">
         <f>G143</f>
         <v>53.538499999999999</v>
@@ -21543,10 +21544,10 @@
       <c r="E170" s="13"/>
       <c r="F170" s="16"/>
       <c r="G170" s="19"/>
-      <c r="H170" s="160" t="s">
+      <c r="H170" s="167" t="s">
         <v>10</v>
       </c>
-      <c r="I170" s="160"/>
+      <c r="I170" s="167"/>
       <c r="J170" s="19">
         <f>G169</f>
         <v>35.659999999999997</v>
@@ -22355,10 +22356,10 @@
       <c r="E196" s="13"/>
       <c r="F196" s="16"/>
       <c r="G196" s="19"/>
-      <c r="H196" s="160" t="s">
+      <c r="H196" s="167" t="s">
         <v>10</v>
       </c>
-      <c r="I196" s="160"/>
+      <c r="I196" s="167"/>
       <c r="J196" s="19">
         <f>G195</f>
         <v>35.096499999999999</v>
@@ -23190,8 +23191,8 @@
       <c r="E222" s="13"/>
       <c r="F222" s="16"/>
       <c r="G222" s="19"/>
-      <c r="H222" s="160"/>
-      <c r="I222" s="160"/>
+      <c r="H222" s="167"/>
+      <c r="I222" s="167"/>
       <c r="J222" s="19"/>
       <c r="K222" s="19"/>
       <c r="L222" s="16">
@@ -23213,10 +23214,10 @@
       <c r="E223" s="19"/>
       <c r="F223" s="16"/>
       <c r="G223" s="19"/>
-      <c r="H223" s="160" t="s">
+      <c r="H223" s="167" t="s">
         <v>10</v>
       </c>
-      <c r="I223" s="160"/>
+      <c r="I223" s="167"/>
       <c r="J223" s="75">
         <f>G221</f>
         <v>27.2195</v>
@@ -23701,8 +23702,8 @@
       <c r="E250" s="13"/>
       <c r="F250" s="16"/>
       <c r="G250" s="19"/>
-      <c r="H250" s="160"/>
-      <c r="I250" s="160"/>
+      <c r="H250" s="167"/>
+      <c r="I250" s="167"/>
       <c r="J250" s="19"/>
       <c r="K250" s="19"/>
       <c r="L250" s="16"/>
@@ -24155,8 +24156,8 @@
       <c r="E276" s="13"/>
       <c r="F276" s="16"/>
       <c r="G276" s="19"/>
-      <c r="H276" s="160"/>
-      <c r="I276" s="160"/>
+      <c r="H276" s="167"/>
+      <c r="I276" s="167"/>
       <c r="J276" s="19"/>
       <c r="K276" s="19"/>
       <c r="L276" s="16"/>
@@ -24629,8 +24630,8 @@
       <c r="E303" s="13"/>
       <c r="F303" s="16"/>
       <c r="G303" s="19"/>
-      <c r="H303" s="160"/>
-      <c r="I303" s="160"/>
+      <c r="H303" s="167"/>
+      <c r="I303" s="167"/>
       <c r="J303" s="16"/>
       <c r="K303" s="19"/>
       <c r="L303" s="16"/>
@@ -25109,8 +25110,8 @@
       <c r="E330" s="13"/>
       <c r="F330" s="16"/>
       <c r="G330" s="19"/>
-      <c r="H330" s="160"/>
-      <c r="I330" s="160"/>
+      <c r="H330" s="167"/>
+      <c r="I330" s="167"/>
       <c r="J330" s="16"/>
       <c r="K330" s="19"/>
       <c r="L330" s="16"/>
@@ -25586,8 +25587,8 @@
       <c r="E357" s="13"/>
       <c r="F357" s="16"/>
       <c r="G357" s="19"/>
-      <c r="H357" s="160"/>
-      <c r="I357" s="160"/>
+      <c r="H357" s="167"/>
+      <c r="I357" s="167"/>
       <c r="J357" s="16"/>
       <c r="K357" s="19"/>
       <c r="L357" s="16"/>
@@ -26046,8 +26047,8 @@
       <c r="E383" s="13"/>
       <c r="F383" s="16"/>
       <c r="G383" s="19"/>
-      <c r="H383" s="160"/>
-      <c r="I383" s="160"/>
+      <c r="H383" s="167"/>
+      <c r="I383" s="167"/>
       <c r="J383" s="16"/>
       <c r="K383" s="19"/>
       <c r="L383" s="16"/>
@@ -26521,8 +26522,8 @@
       <c r="E410" s="13"/>
       <c r="F410" s="16"/>
       <c r="G410" s="19"/>
-      <c r="H410" s="160"/>
-      <c r="I410" s="160"/>
+      <c r="H410" s="167"/>
+      <c r="I410" s="167"/>
       <c r="J410" s="16"/>
       <c r="K410" s="19"/>
       <c r="L410" s="16"/>
@@ -32373,18 +32374,18 @@
     </row>
     <row r="679" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A679" s="55"/>
-      <c r="B679" s="168"/>
-      <c r="C679" s="168"/>
-      <c r="D679" s="168"/>
-      <c r="E679" s="168"/>
-      <c r="F679" s="168"/>
-      <c r="G679" s="168"/>
+      <c r="B679" s="166"/>
+      <c r="C679" s="166"/>
+      <c r="D679" s="166"/>
+      <c r="E679" s="166"/>
+      <c r="F679" s="166"/>
+      <c r="G679" s="166"/>
       <c r="H679" s="55"/>
-      <c r="I679" s="168"/>
-      <c r="J679" s="168"/>
-      <c r="K679" s="168"/>
-      <c r="L679" s="168"/>
-      <c r="M679" s="168"/>
+      <c r="I679" s="166"/>
+      <c r="J679" s="166"/>
+      <c r="K679" s="166"/>
+      <c r="L679" s="166"/>
+      <c r="M679" s="166"/>
       <c r="N679" s="15"/>
       <c r="O679" s="15"/>
       <c r="P679" s="20"/>
@@ -32948,8 +32949,8 @@
       <c r="E708" s="63"/>
       <c r="F708" s="60"/>
       <c r="G708" s="60"/>
-      <c r="H708" s="167"/>
-      <c r="I708" s="167"/>
+      <c r="H708" s="165"/>
+      <c r="I708" s="165"/>
       <c r="J708" s="63"/>
       <c r="K708" s="63"/>
       <c r="L708" s="63"/>
@@ -32961,18 +32962,18 @@
     </row>
     <row r="709" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A709" s="55"/>
-      <c r="B709" s="168"/>
-      <c r="C709" s="168"/>
-      <c r="D709" s="168"/>
-      <c r="E709" s="168"/>
-      <c r="F709" s="168"/>
-      <c r="G709" s="168"/>
+      <c r="B709" s="166"/>
+      <c r="C709" s="166"/>
+      <c r="D709" s="166"/>
+      <c r="E709" s="166"/>
+      <c r="F709" s="166"/>
+      <c r="G709" s="166"/>
       <c r="H709" s="55"/>
-      <c r="I709" s="168"/>
-      <c r="J709" s="168"/>
-      <c r="K709" s="168"/>
-      <c r="L709" s="168"/>
-      <c r="M709" s="168"/>
+      <c r="I709" s="166"/>
+      <c r="J709" s="166"/>
+      <c r="K709" s="166"/>
+      <c r="L709" s="166"/>
+      <c r="M709" s="166"/>
       <c r="N709" s="69"/>
       <c r="O709" s="69"/>
       <c r="P709" s="70"/>
@@ -33675,6 +33676,87 @@
     </row>
   </sheetData>
   <mergeCells count="97">
+    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="H223:I223"/>
+    <mergeCell ref="H64:I64"/>
+    <mergeCell ref="D65:E65"/>
+    <mergeCell ref="H144:I144"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="B4:G4"/>
+    <mergeCell ref="I4:M4"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="B35:G35"/>
+    <mergeCell ref="I35:M35"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="B66:G66"/>
+    <mergeCell ref="I66:M66"/>
+    <mergeCell ref="H90:I90"/>
+    <mergeCell ref="D92:E92"/>
+    <mergeCell ref="H383:I383"/>
+    <mergeCell ref="H385:I385"/>
+    <mergeCell ref="H117:I117"/>
+    <mergeCell ref="D119:E119"/>
+    <mergeCell ref="B120:G120"/>
+    <mergeCell ref="I120:M120"/>
+    <mergeCell ref="D145:E145"/>
+    <mergeCell ref="B146:G146"/>
+    <mergeCell ref="I146:M146"/>
+    <mergeCell ref="H170:I170"/>
+    <mergeCell ref="D171:E171"/>
+    <mergeCell ref="B172:G172"/>
+    <mergeCell ref="B226:G226"/>
+    <mergeCell ref="H250:I250"/>
+    <mergeCell ref="B252:G252"/>
+    <mergeCell ref="I252:M252"/>
+    <mergeCell ref="B279:G279"/>
+    <mergeCell ref="I279:M279"/>
+    <mergeCell ref="H303:I303"/>
+    <mergeCell ref="B93:G93"/>
+    <mergeCell ref="I93:M93"/>
+    <mergeCell ref="B198:G198"/>
+    <mergeCell ref="I198:M198"/>
+    <mergeCell ref="H222:I222"/>
+    <mergeCell ref="H251:I251"/>
+    <mergeCell ref="I172:M172"/>
+    <mergeCell ref="H196:I196"/>
+    <mergeCell ref="D197:E197"/>
+    <mergeCell ref="H225:I225"/>
+    <mergeCell ref="I226:M226"/>
+    <mergeCell ref="H276:I276"/>
+    <mergeCell ref="H278:I278"/>
+    <mergeCell ref="H357:I357"/>
+    <mergeCell ref="H358:I358"/>
+    <mergeCell ref="B359:G359"/>
+    <mergeCell ref="I359:M359"/>
+    <mergeCell ref="H305:I305"/>
+    <mergeCell ref="B306:G306"/>
+    <mergeCell ref="I306:M306"/>
+    <mergeCell ref="H330:I330"/>
+    <mergeCell ref="H332:I332"/>
+    <mergeCell ref="B333:G333"/>
+    <mergeCell ref="I333:M333"/>
+    <mergeCell ref="H440:I440"/>
+    <mergeCell ref="B441:G441"/>
+    <mergeCell ref="I441:M441"/>
+    <mergeCell ref="H469:I469"/>
+    <mergeCell ref="B386:G386"/>
+    <mergeCell ref="I386:M386"/>
+    <mergeCell ref="H410:I410"/>
+    <mergeCell ref="H411:I411"/>
+    <mergeCell ref="B412:G412"/>
+    <mergeCell ref="I412:M412"/>
+    <mergeCell ref="B470:G470"/>
+    <mergeCell ref="I470:M470"/>
+    <mergeCell ref="H498:I498"/>
+    <mergeCell ref="B499:G499"/>
+    <mergeCell ref="I499:M499"/>
+    <mergeCell ref="I619:M619"/>
+    <mergeCell ref="H528:I528"/>
+    <mergeCell ref="B529:G529"/>
+    <mergeCell ref="I529:M529"/>
+    <mergeCell ref="H558:I558"/>
+    <mergeCell ref="B559:G559"/>
+    <mergeCell ref="I559:M559"/>
     <mergeCell ref="O21:Q21"/>
     <mergeCell ref="O24:Q24"/>
     <mergeCell ref="H708:I708"/>
@@ -33691,87 +33773,6 @@
     <mergeCell ref="I589:M589"/>
     <mergeCell ref="H618:I618"/>
     <mergeCell ref="B619:G619"/>
-    <mergeCell ref="I619:M619"/>
-    <mergeCell ref="H528:I528"/>
-    <mergeCell ref="B529:G529"/>
-    <mergeCell ref="I529:M529"/>
-    <mergeCell ref="H558:I558"/>
-    <mergeCell ref="B559:G559"/>
-    <mergeCell ref="I559:M559"/>
-    <mergeCell ref="B470:G470"/>
-    <mergeCell ref="I470:M470"/>
-    <mergeCell ref="H498:I498"/>
-    <mergeCell ref="B499:G499"/>
-    <mergeCell ref="I499:M499"/>
-    <mergeCell ref="H440:I440"/>
-    <mergeCell ref="B441:G441"/>
-    <mergeCell ref="I441:M441"/>
-    <mergeCell ref="H469:I469"/>
-    <mergeCell ref="B386:G386"/>
-    <mergeCell ref="I386:M386"/>
-    <mergeCell ref="H410:I410"/>
-    <mergeCell ref="H411:I411"/>
-    <mergeCell ref="B412:G412"/>
-    <mergeCell ref="I412:M412"/>
-    <mergeCell ref="H357:I357"/>
-    <mergeCell ref="H358:I358"/>
-    <mergeCell ref="B359:G359"/>
-    <mergeCell ref="I359:M359"/>
-    <mergeCell ref="H305:I305"/>
-    <mergeCell ref="B306:G306"/>
-    <mergeCell ref="I306:M306"/>
-    <mergeCell ref="H330:I330"/>
-    <mergeCell ref="H332:I332"/>
-    <mergeCell ref="B333:G333"/>
-    <mergeCell ref="I333:M333"/>
-    <mergeCell ref="B279:G279"/>
-    <mergeCell ref="I279:M279"/>
-    <mergeCell ref="H303:I303"/>
-    <mergeCell ref="B93:G93"/>
-    <mergeCell ref="I93:M93"/>
-    <mergeCell ref="B198:G198"/>
-    <mergeCell ref="I198:M198"/>
-    <mergeCell ref="H222:I222"/>
-    <mergeCell ref="H251:I251"/>
-    <mergeCell ref="I172:M172"/>
-    <mergeCell ref="H196:I196"/>
-    <mergeCell ref="D197:E197"/>
-    <mergeCell ref="H225:I225"/>
-    <mergeCell ref="I226:M226"/>
-    <mergeCell ref="H276:I276"/>
-    <mergeCell ref="H278:I278"/>
-    <mergeCell ref="H383:I383"/>
-    <mergeCell ref="H385:I385"/>
-    <mergeCell ref="H117:I117"/>
-    <mergeCell ref="D119:E119"/>
-    <mergeCell ref="B120:G120"/>
-    <mergeCell ref="I120:M120"/>
-    <mergeCell ref="D145:E145"/>
-    <mergeCell ref="B146:G146"/>
-    <mergeCell ref="I146:M146"/>
-    <mergeCell ref="H170:I170"/>
-    <mergeCell ref="D171:E171"/>
-    <mergeCell ref="B172:G172"/>
-    <mergeCell ref="B226:G226"/>
-    <mergeCell ref="H250:I250"/>
-    <mergeCell ref="B252:G252"/>
-    <mergeCell ref="I252:M252"/>
-    <mergeCell ref="A1:M1"/>
-    <mergeCell ref="H223:I223"/>
-    <mergeCell ref="H64:I64"/>
-    <mergeCell ref="D65:E65"/>
-    <mergeCell ref="H144:I144"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="B4:G4"/>
-    <mergeCell ref="I4:M4"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="B35:G35"/>
-    <mergeCell ref="I35:M35"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="B66:G66"/>
-    <mergeCell ref="I66:M66"/>
-    <mergeCell ref="H90:I90"/>
-    <mergeCell ref="D92:E92"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0.25" bottom="0" header="0" footer="0"/>
@@ -34619,10 +34620,10 @@
   <sheetPr>
     <tabColor rgb="FF00B0F0"/>
   </sheetPr>
-  <dimension ref="A1:V190"/>
+  <dimension ref="A1:V861"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A34" zoomScale="112" zoomScaleNormal="89" zoomScaleSheetLayoutView="112" workbookViewId="0">
-      <selection activeCell="C52" sqref="C52"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="112" zoomScaleNormal="89" zoomScaleSheetLayoutView="112" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -35682,10 +35683,10 @@
       <c r="E18" s="79"/>
       <c r="F18" s="80"/>
       <c r="G18" s="78"/>
-      <c r="H18" s="160" t="s">
+      <c r="H18" s="167" t="s">
         <v>10</v>
       </c>
-      <c r="I18" s="160"/>
+      <c r="I18" s="167"/>
       <c r="J18" s="78" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
@@ -36342,10 +36343,10 @@
       <c r="E35" s="79"/>
       <c r="F35" s="80"/>
       <c r="G35" s="78"/>
-      <c r="H35" s="160" t="s">
+      <c r="H35" s="167" t="s">
         <v>10</v>
       </c>
-      <c r="I35" s="160"/>
+      <c r="I35" s="167"/>
       <c r="J35" s="78" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
@@ -37087,10 +37088,10 @@
       <c r="E61" s="79"/>
       <c r="F61" s="80"/>
       <c r="G61" s="78"/>
-      <c r="H61" s="160" t="s">
+      <c r="H61" s="167" t="s">
         <v>10</v>
       </c>
-      <c r="I61" s="160"/>
+      <c r="I61" s="167"/>
       <c r="J61" s="78">
         <f>G60</f>
         <v>25.436000000000007</v>
@@ -38863,10 +38864,10 @@
       <c r="E109" s="79"/>
       <c r="F109" s="80"/>
       <c r="G109" s="78"/>
-      <c r="H109" s="160" t="s">
+      <c r="H109" s="167" t="s">
         <v>10</v>
       </c>
-      <c r="I109" s="160"/>
+      <c r="I109" s="167"/>
       <c r="J109" s="78" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
@@ -39524,10 +39525,10 @@
       <c r="E127" s="79"/>
       <c r="F127" s="80"/>
       <c r="G127" s="78"/>
-      <c r="H127" s="160" t="s">
+      <c r="H127" s="167" t="s">
         <v>10</v>
       </c>
-      <c r="I127" s="160"/>
+      <c r="I127" s="167"/>
       <c r="J127" s="78" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
@@ -40349,8 +40350,8 @@
       <c r="E153" s="79"/>
       <c r="F153" s="80"/>
       <c r="G153" s="78"/>
-      <c r="H153" s="160"/>
-      <c r="I153" s="160"/>
+      <c r="H153" s="167"/>
+      <c r="I153" s="167"/>
       <c r="J153" s="78"/>
       <c r="K153" s="78"/>
       <c r="L153" s="80">
@@ -40372,10 +40373,10 @@
       <c r="E154" s="78"/>
       <c r="F154" s="80"/>
       <c r="G154" s="78"/>
-      <c r="H154" s="160" t="s">
+      <c r="H154" s="167" t="s">
         <v>10</v>
       </c>
-      <c r="I154" s="160"/>
+      <c r="I154" s="167"/>
       <c r="J154" s="78">
         <f>G152</f>
         <v>27.2195</v>
@@ -40860,8 +40861,8 @@
       <c r="E181" s="79"/>
       <c r="F181" s="80"/>
       <c r="G181" s="78"/>
-      <c r="H181" s="160"/>
-      <c r="I181" s="160"/>
+      <c r="H181" s="167"/>
+      <c r="I181" s="167"/>
       <c r="J181" s="78"/>
       <c r="K181" s="78"/>
       <c r="L181" s="80"/>
@@ -41034,26 +41035,671 @@
       <c r="Q190" s="22"/>
       <c r="R190" s="21"/>
     </row>
+    <row r="193" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="194" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="195" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="196" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="197" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="198" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="199" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="200" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="201" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="202" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="203" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="204" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="205" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="206" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="207" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="208" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="209" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="210" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="211" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="212" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="213" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="214" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="215" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="216" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="217" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="218" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="219" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="220" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="221" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="222" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="223" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="224" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="225" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="226" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="227" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="228" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="229" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="230" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="231" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="232" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="233" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="234" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="235" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="236" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="237" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="238" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="239" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="240" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="241" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="242" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="243" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="244" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="245" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="246" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="247" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="248" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="249" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="250" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="251" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="252" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="253" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="254" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="255" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="256" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="257" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="258" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="259" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="260" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="261" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="262" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="263" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="264" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="265" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="266" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="267" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="268" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="269" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="270" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="271" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="272" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="273" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="274" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="275" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="276" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="277" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="278" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="279" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="280" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="281" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="282" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="283" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="284" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="285" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="286" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="287" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="288" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="289" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="290" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="291" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="292" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="293" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="294" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="295" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="296" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="297" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="298" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="299" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="300" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="301" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="302" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="303" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="304" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="305" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="306" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="307" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="308" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="309" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="310" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="311" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="312" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="313" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="314" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="315" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="316" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="317" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="318" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="319" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="320" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="321" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="322" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="323" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="324" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="325" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="326" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="327" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="328" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="329" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="330" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="331" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="332" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="333" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="334" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="335" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="336" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="337" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="338" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="339" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="340" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="341" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="342" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="343" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="344" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="345" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="346" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="347" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="348" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="349" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="350" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="351" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="352" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="353" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="354" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="355" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="356" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="357" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="358" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="359" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="360" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="361" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="362" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="363" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="364" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="365" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="366" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="367" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="368" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="369" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="370" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="371" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="372" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="373" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="374" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="375" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="376" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="377" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="378" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="379" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="380" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="381" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="382" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="383" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="384" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="385" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="386" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="387" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="388" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="389" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="390" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="391" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="392" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="393" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="394" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="395" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="396" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="397" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="398" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="399" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="400" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="401" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="402" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="403" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="404" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="405" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="406" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="407" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="408" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="409" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="410" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="411" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="412" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="413" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="414" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="415" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="416" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="417" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="418" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="419" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="420" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="421" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="422" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="423" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="424" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="425" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="426" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="427" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="428" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="429" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="430" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="431" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="432" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="433" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="434" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="435" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="436" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="437" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="438" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="439" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="440" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="441" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="442" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="443" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="444" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="445" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="446" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="447" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="448" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="449" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="450" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="451" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="452" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="453" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="454" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="455" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="456" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="457" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="458" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="459" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="460" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="461" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="462" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="463" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="464" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="465" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="466" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="467" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="468" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="469" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="470" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="471" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="472" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="473" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="474" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="475" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="476" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="477" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="478" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="479" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="480" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="481" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="482" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="483" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="484" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="485" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="486" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="487" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="488" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="489" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="490" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="491" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="492" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="493" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="494" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="495" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="496" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="497" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="498" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="499" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="500" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="501" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="502" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="503" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="504" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="505" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="506" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="507" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="508" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="509" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="510" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="511" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="512" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="513" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="514" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="515" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="516" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="517" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="518" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="519" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="520" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="521" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="522" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="523" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="524" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="525" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="526" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="528" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="529" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="530" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="531" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="532" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="533" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="534" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="535" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="536" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="537" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="538" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="539" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="540" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="541" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="542" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="543" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="544" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="545" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="546" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="547" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="548" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="549" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="550" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="551" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="552" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="553" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="554" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="555" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="556" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="558" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="559" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="560" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="561" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="562" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="563" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="564" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="565" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="566" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="567" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="568" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="569" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="570" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="571" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="572" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="573" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="574" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="575" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="576" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="577" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="578" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="579" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="580" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="581" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="582" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="583" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="584" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="585" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="586" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="588" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="589" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="590" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="591" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="592" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="593" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="594" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="595" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="596" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="597" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="598" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="599" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="600" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="601" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="602" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="603" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="604" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="605" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="606" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="607" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="608" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="609" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="610" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="611" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="612" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="613" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="614" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="615" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="616" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="618" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="619" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="620" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="621" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="622" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="623" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="624" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="625" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="626" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="627" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="628" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="629" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="630" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="631" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="632" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="633" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="634" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="635" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="636" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="637" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="638" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="639" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="640" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="641" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="642" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="643" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="644" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="645" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="646" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="648" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="649" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="650" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="651" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="652" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="653" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="654" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="655" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="656" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="657" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="658" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="659" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="660" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="661" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="662" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="663" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="664" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="665" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="666" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="667" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="668" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="669" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="670" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="671" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="672" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="673" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="674" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="675" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="676" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="678" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="679" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="680" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="681" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="682" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="683" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="684" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="685" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="686" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="687" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="688" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="689" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="690" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="691" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="692" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="693" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="694" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="695" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="696" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="697" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="698" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="699" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="700" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="701" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="702" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="703" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="704" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="705" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="706" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="707" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="708" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="709" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="710" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="711" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="712" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="713" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="714" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="715" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="716" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="717" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="718" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="719" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="720" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="721" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="722" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="723" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="724" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="725" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="726" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="727" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="728" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="729" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="730" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="731" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="732" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="733" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="734" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="735" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="736" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="737" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="738" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="739" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="740" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="741" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="742" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="743" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="744" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="745" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="746" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="747" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="748" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="749" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="750" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="751" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="752" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="753" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="754" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="755" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="756" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="757" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="758" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="759" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="760" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="761" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="762" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="763" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="764" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="765" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="766" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="767" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="768" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="769" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="770" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="771" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="772" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="773" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="774" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="775" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="776" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="777" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="778" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="779" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="780" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="781" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="782" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="783" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="784" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="785" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="786" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="787" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="788" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="789" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="790" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="791" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="792" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="793" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="794" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="795" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="796" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="797" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="798" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="799" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="800" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="801" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="802" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="803" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="804" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="805" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="806" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="807" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="808" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="809" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="810" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="811" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="812" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="813" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="814" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="815" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="816" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="817" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="818" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="819" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="820" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="821" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="822" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="823" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="824" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="825" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="826" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="827" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="828" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="829" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="830" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="831" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="832" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="833" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="834" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="835" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="836" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="837" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="838" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="839" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="840" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="841" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="842" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="843" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="844" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="845" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="846" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="847" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="848" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="849" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="850" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="851" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="852" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="853" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="854" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="855" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="856" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="857" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="858" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="859" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="860" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="861" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="B4:G4"/>
-    <mergeCell ref="I4:M4"/>
-    <mergeCell ref="A1:T1"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="B20:G20"/>
-    <mergeCell ref="I20:M20"/>
-    <mergeCell ref="H35:I35"/>
-    <mergeCell ref="H109:I109"/>
-    <mergeCell ref="D110:E110"/>
-    <mergeCell ref="D80:E80"/>
-    <mergeCell ref="D94:E94"/>
-    <mergeCell ref="B37:G37"/>
-    <mergeCell ref="I37:M37"/>
-    <mergeCell ref="H61:I61"/>
-    <mergeCell ref="D63:E63"/>
     <mergeCell ref="B183:G183"/>
     <mergeCell ref="I183:M183"/>
     <mergeCell ref="H127:I127"/>
@@ -41067,6 +41713,24 @@
     <mergeCell ref="I157:M157"/>
     <mergeCell ref="H181:I181"/>
     <mergeCell ref="H182:I182"/>
+    <mergeCell ref="H109:I109"/>
+    <mergeCell ref="D110:E110"/>
+    <mergeCell ref="D80:E80"/>
+    <mergeCell ref="D94:E94"/>
+    <mergeCell ref="B37:G37"/>
+    <mergeCell ref="I37:M37"/>
+    <mergeCell ref="H61:I61"/>
+    <mergeCell ref="D63:E63"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="B4:G4"/>
+    <mergeCell ref="I4:M4"/>
+    <mergeCell ref="A1:T1"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="B20:G20"/>
+    <mergeCell ref="I20:M20"/>
+    <mergeCell ref="H35:I35"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0.25" bottom="0" header="0" footer="0"/>
